--- a/cdm-country-code.xlsx
+++ b/cdm-country-code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickchandra/Documents/code/CADTrust/cdm-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC60873-067E-F045-9E08-126B7C55E00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC7EA34-AF73-F046-8D7A-276E48D6CFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="17280" xr2:uid="{69D80E33-0C8E-184B-992C-0FA45A510B1F}"/>
+    <workbookView xWindow="6060" yWindow="740" windowWidth="23340" windowHeight="17280" xr2:uid="{69D80E33-0C8E-184B-992C-0FA45A510B1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1001">
   <si>
     <t>AD</t>
   </si>
@@ -2990,9 +2990,6 @@
     <t>Antigua and Barduba</t>
   </si>
   <si>
-    <t>Bosnia and  Herzegovina</t>
-  </si>
-  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
@@ -3006,9 +3003,6 @@
   </si>
   <si>
     <t>Democratic Republic of Congo</t>
-  </si>
-  <si>
-    <t>Domincan Republic</t>
   </si>
   <si>
     <t>Equatorial New Guinea</t>
@@ -3413,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0F8624-60DE-EC44-946A-37001F713615}">
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="D244" sqref="D244"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3725,7 +3719,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>984</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -3895,7 +3889,7 @@
         <v>494</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -4082,7 +4076,7 @@
         <v>518</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4116,7 +4110,7 @@
         <v>523</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -4150,7 +4144,7 @@
         <v>528</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4422,7 +4416,7 @@
         <v>109</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>990</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -4881,7 +4875,7 @@
         <v>154</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4966,7 +4960,7 @@
         <v>164</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -5459,7 +5453,7 @@
         <v>702</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -5476,7 +5470,7 @@
         <v>705</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -5544,7 +5538,7 @@
         <v>714</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -5833,7 +5827,7 @@
         <v>750</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -5867,7 +5861,7 @@
         <v>755</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -6496,7 +6490,7 @@
         <v>833</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -6632,7 +6626,7 @@
         <v>851</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -6921,7 +6915,7 @@
         <v>887</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -7244,7 +7238,7 @@
         <v>932</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -7308,7 +7302,7 @@
         <v>940</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -7444,7 +7438,7 @@
         <v>960</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
